--- a/src/main/java/com/qa/testdata/APITestData.xlsx
+++ b/src/main/java/com/qa/testdata/APITestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/RestAPIRestAssuredFW/src/main/java/com/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\PetStoreAutomation\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCEE1A-3ADE-4904-BC06-D384F330970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherInfo" sheetId="1" r:id="rId1"/>
@@ -27,75 +28,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>humidity</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>weatherdescription</t>
-  </si>
-  <si>
-    <t>windspeed</t>
-  </si>
-  <si>
-    <t>winddirectiondegree</t>
-  </si>
-  <si>
-    <t>HTTPMethod</t>
-  </si>
-  <si>
-    <t>75 Percent</t>
-  </si>
-  <si>
-    <t>13.123 Degree celsius</t>
-  </si>
-  <si>
-    <t>clear sky</t>
-  </si>
-  <si>
-    <t>1.35 Km per hour</t>
-  </si>
-  <si>
-    <t>114.5 Degree</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>82 Percent</t>
-  </si>
-  <si>
-    <t>21.18 Degree celsius</t>
-  </si>
-  <si>
-    <t>few clouds</t>
-  </si>
-  <si>
-    <t>2.1 Km per hour</t>
-  </si>
-  <si>
-    <t>100 Degree</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>id_category</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>photo_url</t>
+  </si>
+  <si>
+    <t>photo_url2</t>
+  </si>
+  <si>
+    <t>pet_1</t>
+  </si>
+  <si>
+    <t>pet_2</t>
+  </si>
+  <si>
+    <t>pet_3</t>
+  </si>
+  <si>
+    <t>dog_1</t>
+  </si>
+  <si>
+    <t>lion_2</t>
+  </si>
+  <si>
+    <t>cat_1</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>url2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -145,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,112 +404,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
